--- a/文档/工作簿1.xlsx
+++ b/文档/工作簿1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="zs" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="fs" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
   <si>
     <t>护甲增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,14 +47,441 @@
   </si>
   <si>
     <t>威胁值提高x%，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英勇打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆震击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令怒吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑刃风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺劈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断施法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加攻强20min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方hp低于30%消耗全部怒气，产生大量伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速冲向目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半径2m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标和附近额外2个单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群攻附带3s减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（boss战和剑刃风暴没差别，需要考虑差异化部分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一条直线上的敌人（带控）晕3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE持续8s，全中伤害比冲击波高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单攻产生怒气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方直线10m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对周围3个敌人造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是你的目标立即攻击你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾猛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用盾牌攻击你的敌人，产生大量威胁值；格挡之后刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即对你的目标造成伤害，产生大量威胁值；躲闪之后刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使你所受到的伤害减少40%，持续5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破釜沉舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使你的生命上限提高30%，持续8s，使你的体型变大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师：</t>
+  </si>
+  <si>
+    <t>传送门</t>
+  </si>
+  <si>
+    <t>公共：闪现、法术护盾、冰箱、唤醒、反制、奥术智慧(智力和回蓝)，magic_cake、羊</t>
+  </si>
+  <si>
+    <t>远程：暴风雪、冰环、吹风、冰箭、冰枪（冰箭累计、天赋点）、霜火箭（易伤）</t>
+  </si>
+  <si>
+    <t>近战：雷火切换、雷系：单体（回蓝）、单体（读条、高伤）、单体（控制） 火系：群伤（杀回）、群伤（读条、DOT、高伤）</t>
+  </si>
+  <si>
+    <t>法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teleporttttttttttttttttttttt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造一个护盾，吸收固定数值的的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一定时间内免疫所有伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断敌人的施法，如果打断成功就沉默敌人一定的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥数智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加所有友方单位的智力和法力恢复速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否改为被动？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作一个可以在战斗外食用的物品，有增益效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将一个敌人变成羊，受到伤害立刻还原，生命值恢复速度增加，只能对一个敌人起效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在雷元素技能和火元素技能之间切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷系单体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体伤害，回蓝效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体伤害，高伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火系群体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火系Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体伤害，每击中一个敌人减少1s的法术护盾时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体伤害,高伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不稳定化合物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置一个不稳定化合物，当受到火系技能伤害时爆炸，对周围敌人造成一定伤害并控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身增加一个法伤Buff和某Debuff，Debuff在切回雷系的时候可以清除掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,7 +539,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -186,7 +613,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -221,7 +647,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,16 +822,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C15:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="48.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -420,12 +850,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="F3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -434,6 +864,381 @@
       </c>
       <c r="F4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -443,25 +1248,310 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="79.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="8" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/工作簿1.xlsx
+++ b/文档/工作簿1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="135">
   <si>
     <t>护甲增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,10 +421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>近战法师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>元素切换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,14 +470,94 @@
   </si>
   <si>
     <t>1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使自身周围2m半径内敌方单位受到x伤害并冻结3s，再次受到伤害会打破冻结效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬发单体伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期性对范围造成伤害，3波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需持续引导（待定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤水元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤1个持续20s的召唤物，可辅助攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰DOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂1个冰系dot，持续8s，每秒造成x点伤害，任何冰系伤害都会叠加dot层数;对身上有该dot的目标再次释放寒冰DOT会引爆叠加的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,7 +615,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -613,6 +689,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -647,6 +724,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -822,21 +900,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C15:C19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="50.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.875" customWidth="1"/>
     <col min="9" max="9" width="48.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -850,12 +928,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -866,7 +944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -892,7 +970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -918,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -938,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -958,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -975,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -995,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -1015,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -1035,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1058,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -1078,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>46</v>
       </c>
@@ -1098,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>49</v>
       </c>
@@ -1118,7 +1196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>47</v>
       </c>
@@ -1138,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>57</v>
       </c>
@@ -1161,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>61</v>
       </c>
@@ -1181,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>63</v>
       </c>
@@ -1201,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>65</v>
       </c>
@@ -1221,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>68</v>
       </c>
@@ -1248,14 +1326,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
@@ -1266,32 +1344,32 @@
     <col min="10" max="10" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1320,7 +1398,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1340,7 +1418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>80</v>
       </c>
@@ -1354,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>82</v>
       </c>
@@ -1371,7 +1449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>86</v>
       </c>
@@ -1388,7 +1466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>89</v>
       </c>
@@ -1405,7 +1483,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>92</v>
       </c>
@@ -1422,7 +1500,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>96</v>
       </c>
@@ -1430,7 +1508,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>98</v>
       </c>
@@ -1447,62 +1525,62 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>103</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
       </c>
       <c r="E16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="3:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
         <v>105</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
         <v>106</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" t="s">
-        <v>107</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
         <v>112</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" t="s">
-        <v>114</v>
       </c>
       <c r="E20" t="s">
         <v>81</v>
@@ -1514,29 +1592,149 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="3:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="3:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
         <v>56</v>
       </c>
       <c r="H22" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1546,12 +1744,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/工作簿1.xlsx
+++ b/文档/工作簿1.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="zs" sheetId="1" r:id="rId1"/>
     <sheet name="fs" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="LR" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="199">
   <si>
     <t>护甲增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,6 +550,257 @@
   </si>
   <si>
     <t>8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人：</t>
+  </si>
+  <si>
+    <t>（宝宝死了一定时间自动复活）</t>
+  </si>
+  <si>
+    <t>公共：逃脱、假死、陷阱(有范围可选择、冰霜、火焰、毒蛇、天赋点出不同效果来)、杀戮射击、沉默射击、震荡射击、毒蛇钉刺、多重</t>
+  </si>
+  <si>
+    <t>兽猎：杀戮命令、眼镜蛇射击、狂野怒火、群兽奔腾、集中火力、</t>
+  </si>
+  <si>
+    <t>射击猎人：奇美拉射击、稳固射击、急速射击、奥术射击、瞄准射击</t>
+  </si>
+  <si>
+    <t>猎人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃脱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向后跳跃一段距离2m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装死，可能使敌人忽略你，持续6分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置一个冰霜陷阱，在敌人接近时会制造一片光滑的冰面，持续10s，所有在陷阱周围3m半径内的敌人的移动速度降低40%，陷阱存在时间30s(同一时间只能存在一个)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时考虑为天赋变更技能的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀戮射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你试图杀死受伤的目标，对其造成X点伤害。只能对生命值少于20%的目标使用。如果目标未死亡，该技能的冷却时间立即重置，每4秒只能重置一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断目标施法并使目标沉默3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震荡射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使目标眩晕，移动速度降低40%持续3S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒蛇钉刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在10S内造成X点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对你当前目标及2M内的所有敌人造成X点伤害(比普通攻击小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀戮命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使你的宠物马上对目标造成X点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜蛇射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂野怒火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使你和你的宠物变大并进入狂怒状态(变红)，解除所有控制效果，你的宠物伤害额外提高20%，你的伤害额外10%，持续10S，并且射击消耗的能量降低50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群兽奔腾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤你所有的宠物进入战斗，持续10S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你和你的宠物能量增加50点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击猎人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇美拉射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成X点伤害+{Y}点伤害，刷新你的毒蛇钉刺持续时间，并为你恢复5%的生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳固射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成X点伤害，并回复Y点能量值(可移动使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成X点伤害并回复Y点能量值(可移动使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急速射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程急速增加30%，持续10S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞄准射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次强力的射击，对目标造成450%的武器伤害+X点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成X点伤害+奥术伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,9 +847,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1329,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -1745,13 +1999,362 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="59.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="H29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/文档/工作簿1.xlsx
+++ b/文档/工作簿1.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="zs" sheetId="1" r:id="rId1"/>
     <sheet name="fs" sheetId="2" r:id="rId2"/>
     <sheet name="LR" sheetId="3" r:id="rId3"/>
+    <sheet name="ms" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="264">
   <si>
     <t>护甲增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -801,6 +802,263 @@
   </si>
   <si>
     <t>对目标造成X点伤害+奥术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师：</t>
+  </si>
+  <si>
+    <t>暗牧：痛、吸血鬼之触、心灵震爆、精神鞭笞、暗言术：灭、暗影形态/吸血的拥抱、</t>
+  </si>
+  <si>
+    <t>神牧：治疗术、治疗之环、真言术：盾、神圣赞美诗(群加)、痛苦压制、21点有2种 1个易伤向、1个群疗；只能2选1</t>
+  </si>
+  <si>
+    <t>牧师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真言术：韧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惩击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣之火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵尖叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神灼烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗牧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血鬼之触</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵震爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神鞭笞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗言术：灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影形态/吸血鬼的拥抱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共：快速恢复、快速治疗、真言术：韧、惩击、神圣之火、心灵尖叫、精神灼烧、暗影魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神牧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗之环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真言术：盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣赞美诗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛苦压制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10S内恢复自身生命值X点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加自身耐力上限X点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成X点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成X点神圣伤害，并在8S内造成Y点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐惧周围2M内的所有敌方目标，最多只有8个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即恢复友方单位X点+Y点法伤害加成生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使友方单位的威胁值降低5%，并使其受到的伤害降低40%，持续8S，昏迷时可施放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个暗影魔攻击目标，暗影魔攻击时使用施法者获得3%的法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在目标周围制造一次暗影魔法能量的爆炸，对周围2M内的所有敌人每1S造成X点+Y点法术强度加成的伤害，持续5S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗的咒语，立即造成X点+Y点法术强度暗影伤害，并在15S之内额外造成Z点+S点法术强度的暗影伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在10S内造成X点暗影伤害，吸血鬼之触每造成一次伤害可以为施法者回复2%的法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击目标，造成X点+Y点法术强度的暗影伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗的咒语，对目标造成X点伤害，只能对生命不高于20%的敌方单位使用(如果目标未死亡可以立即重置CD时间，每6秒之内重置一次)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋切换之后，自身带的形态和技能(形态为暗影形态，吸血鬼的拥抱效果为：增加10%的伤害)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活友方单位，友方复活时有20%生命值和30%的能量，战斗中无法使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用暗影能量冲击目标神识，在3S内造成X点法术强度的暗影伤害，并降低目标移动速度40%(天赋可强化刷新痛的时间)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法缓慢的法术，为单一目标恢复X点生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为10M范围生命值最低的4个或8个(团队)目标每秒恢复X点生命值。持续8S，并使其的治疗效果提高10%，持续8S，牧师必须不断引导能量以维持法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导施法8S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为目标及目标周围10M范围内的4个友方单位恢复X点+Y点法术强度的生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取目标的灵魂力量为其制造一个护盾，可吸收X点+Y点法术强度点伤害。持续10S，只要盾存在，施法不会被打断。只存在一个护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2001,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2357,4 +2615,348 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="43.625" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E25" t="s">
+        <v>248</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" t="s">
+        <v>262</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" t="s">
+        <v>252</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31" t="s">
+        <v>259</v>
+      </c>
+      <c r="H31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>